--- a/arrange/전기조명설비 기능요구사항.xlsx
+++ b/arrange/전기조명설비 기능요구사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\flie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3A589-F239-4256-BA1F-E57EC3BE2E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B046532-4F25-43F3-AF9C-9F5F86C37F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="525" windowWidth="20250" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>CMD_LED_FAULT_REQ 전송</t>
   </si>
@@ -91,18 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LED 불량 테이블 정보 전송 (7byte)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답 테이블 정보(7byte) + 시간값(1byte) 전송</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 제어 전송</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전체 테이블 정보 전송</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -119,26 +107,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기능목적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIR 감지 설정 시간을 전달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전등 불량 알림 전송</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LED ON 상태 요청</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED OFF 상태 요청</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전등 테이블 정보 확인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -147,26 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LED 불량 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상시 켜짐 요청을 받아 전달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상시 꺼짐 요청을 받아 전달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED 켜짐 전달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED 꺼짐 전달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>자동화 모듈의 상태 확인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,16 +127,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전등 켜지고 꺼질때까지 시간 전달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">LED 상태 전송 응답	</t>
   </si>
   <si>
-    <t xml:space="preserve">점등 실패 보고	</t>
-  </si>
-  <si>
     <t xml:space="preserve">RTU에서 상태 요청을 받았을 때 현재 LED 상태를 회신	</t>
   </si>
   <si>
@@ -262,26 +207,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PIR 시간제어 요청</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PIR 꺼지는 시간 설정 10분 제어 요청을 전송</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LED ON 제어 요청을 전송</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LED OFF 제어 요청을 전송 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전등 제어 상태 요청</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">전등 제어 상태 보고	</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -298,7 +227,103 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>동작 설명(기능상세)</t>
+    <t>LED ON 제어 M에 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED OFF 제어 M에 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR감지 전등 제어 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED OFF 제어 요청을 M에 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED ON 제어 요청을 M에 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS로부터 전등불량 알림 응답을 받은 후 M에 응답 전송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전등 불량 감지 알림으로 인한 응답 전달 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR에 의한 LED 켜짐 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR에 의한 LED 꺼짐 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS에 의한 상시 켜짐 요청을 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS에 의한 상시 꺼짐 요청을 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조도 감지로 점등 실패 보고	</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 불량 알림 응답 전송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 변경 확인용 응답 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR 꺼지는 시간제어 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR OFF 시간제어 명령 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등 제어 재전송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신받지 못한 전등 명령 재전송 (3회)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 켜짐 수신을 받지못한 전등 명령 전송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 목적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 상세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 변경 응답 전송 응답 테이블 정보 (7byte + 시간 값 1byte)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간제어 응답</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 불량 테이블 정보 전송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전등불량 감지를 받은 후 CS에 불량 알림 전송 (7byte)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,63 +493,63 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,9 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,17 +1034,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.875" customWidth="1"/>
+    <col min="3" max="3" width="69.5" customWidth="1"/>
     <col min="4" max="4" width="49.125" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
@@ -1038,479 +1060,522 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>3</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>4</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>5</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>6</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
-        <v>2</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>3</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>4</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>5</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>6</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="11">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
